--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2571101.879531668</v>
+        <v>2563928.590821385</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702201</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>111.3193379718598</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
-        <v>38.19053515138887</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>88.21024760771094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37.14341561367267</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7.203367682519216</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>52.65964236359489</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464215</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464215</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>332.4181858992118</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.17339989484481</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129687</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>114.7069381274558</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358484</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322672</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>30.44838804308353</v>
       </c>
       <c r="X7" t="n">
-        <v>135.8043613600997</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>65.11685673997613</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>132.8913888723596</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.5477110993519</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>194.7047996847259</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896919</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498001</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>102.9989830657403</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8338438389641</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>169.1477376595842</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>21.1460481246659</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>164.3675597136119</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>29.3220157029473</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>88.48268081938862</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5269768002191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3322,10 +3322,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>136.0130338575946</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>104.7725661050848</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.81067239650295</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113188</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4030,10 +4030,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6800813726992</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="C2" t="n">
-        <v>825.6800813726992</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726992</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="E2" t="n">
-        <v>825.6800813726992</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>787.1037832399832</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>508.1578098032605</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
         <v>229.2118363665377</v>
@@ -4339,10 +4339,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901066</v>
@@ -4357,25 +4357,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6800813726992</v>
+        <v>642.8621858041602</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.61112272616083</v>
+        <v>285.6468105871245</v>
       </c>
       <c r="C3" t="n">
-        <v>59.61112272616083</v>
+        <v>111.1937813059975</v>
       </c>
       <c r="D3" t="n">
-        <v>59.61112272616083</v>
+        <v>111.1937813059975</v>
       </c>
       <c r="E3" t="n">
-        <v>59.61112272616083</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>59.61112272616083</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>59.61112272616083</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>59.61112272616083</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114809</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N3" t="n">
-        <v>958.7443668768128</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4436,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>730.7421420887098</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>502.5235297228575</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>267.3714214911147</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W3" t="n">
-        <v>267.3714214911147</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="X3" t="n">
-        <v>267.3714214911147</v>
+        <v>661.6224463721464</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.61112272616083</v>
+        <v>453.8621476071925</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>29.36865006843007</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>29.36865006843007</v>
       </c>
       <c r="I4" t="n">
         <v>22.09252109618844</v>
@@ -4521,19 +4521,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.762647488189</v>
+        <v>778.9168197718677</v>
       </c>
       <c r="C5" t="n">
-        <v>1366.762647488189</v>
+        <v>409.9543028314559</v>
       </c>
       <c r="D5" t="n">
-        <v>1366.762647488189</v>
+        <v>51.68860422470546</v>
       </c>
       <c r="E5" t="n">
-        <v>1313.571089545164</v>
+        <v>51.68860422470546</v>
       </c>
       <c r="F5" t="n">
-        <v>937.7734826295867</v>
+        <v>44.74310347550199</v>
       </c>
       <c r="G5" t="n">
-        <v>561.9758757140095</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380377</v>
+        <v>57.643917353804</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456873</v>
+        <v>220.1747338456876</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039968</v>
+        <v>474.0852112039971</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494148</v>
+        <v>773.2160860494153</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.55521363572</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293126</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935878</v>
+        <v>1447.523776935879</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488189</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488189</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488189</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488189</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488189</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488189</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488189</v>
+        <v>1114.692765124607</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.762647488189</v>
+        <v>778.9168197718677</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507.1810340225749</v>
+        <v>414.9419224351878</v>
       </c>
       <c r="C6" t="n">
-        <v>507.1810340225749</v>
+        <v>240.4888931540608</v>
       </c>
       <c r="D6" t="n">
-        <v>507.1810340225749</v>
+        <v>91.55448349280951</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782834</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="K6" t="n">
-        <v>218.456818636141</v>
+        <v>195.5446164760264</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7277836524366</v>
+        <v>479.8626256221625</v>
       </c>
       <c r="M6" t="n">
-        <v>848.0470181903938</v>
+        <v>848.1818601601199</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903938</v>
+        <v>949.3968358693979</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562713</v>
+        <v>1257.711717241717</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706682</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707608</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107477</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107477</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="U6" t="n">
-        <v>1118.308778039339</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="V6" t="n">
-        <v>883.1566698075967</v>
+        <v>1253.006415153944</v>
       </c>
       <c r="W6" t="n">
-        <v>883.1566698075967</v>
+        <v>998.7690584257425</v>
       </c>
       <c r="X6" t="n">
-        <v>883.1566698075967</v>
+        <v>790.9175582202097</v>
       </c>
       <c r="Y6" t="n">
-        <v>675.3963710426428</v>
+        <v>583.1572594552558</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="K7" t="n">
-        <v>32.0999017588814</v>
+        <v>32.09990175888146</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611234</v>
+        <v>90.61654790611246</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236683</v>
+        <v>162.7032697236685</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400014</v>
+        <v>238.5105468400016</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057938</v>
+        <v>292.514541505794</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="Q7" t="n">
-        <v>246.1021391583042</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="R7" t="n">
-        <v>246.1021391583042</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="S7" t="n">
-        <v>246.1021391583042</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="T7" t="n">
-        <v>246.1021391583042</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="U7" t="n">
-        <v>246.1021391583042</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1021391583042</v>
+        <v>60.51911798597993</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1021391583042</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771373</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2344.280697856589</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2344.280697856589</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.280697856589</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.280697856589</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5029,28 +5029,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1302.911127126629</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,16 +5299,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.78598135451</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C16" t="n">
-        <v>519.8497984266031</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D16" t="n">
-        <v>519.8497984266031</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>519.8497984266031</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>519.8497984266031</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>351.6744767464237</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>201.256468294367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>870.4344461847497</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.4344461847497</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5703,22 +5703,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1017.064856369034</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,40 +5740,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2449295548433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.8933943850831</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3803.838860774509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,16 +6460,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6478,7 +6478,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6487,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>785.7936752259998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>557.8041243279824</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>3803.838860774509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,25 +6934,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
         <v>1247.466478653857</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.1696912903951</v>
+        <v>549.6692635248348</v>
       </c>
       <c r="C37" t="n">
-        <v>359.1696912903951</v>
+        <v>549.6692635248348</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>549.6692635248348</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>549.6692635248348</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>402.7793160269244</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>234.6039943467451</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347403</v>
       </c>
       <c r="U37" t="n">
-        <v>1058.224877055613</v>
+        <v>986.0022165609614</v>
       </c>
       <c r="V37" t="n">
-        <v>1058.224877055613</v>
+        <v>731.3177283550746</v>
       </c>
       <c r="W37" t="n">
-        <v>768.8077070186521</v>
+        <v>731.3177283550746</v>
       </c>
       <c r="X37" t="n">
-        <v>540.8181561206347</v>
+        <v>731.3177283550746</v>
       </c>
       <c r="Y37" t="n">
-        <v>540.8181561206347</v>
+        <v>731.3177283550746</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,10 +7171,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>592.8217113586342</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805482</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>465.7659634441654</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X46" t="n">
-        <v>237.776412546148</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3176965815309</v>
+        <v>275.9716853542988</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>347.5605027480649</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.103353283573</v>
+        <v>450.1033532835732</v>
       </c>
       <c r="N6" t="n">
-        <v>65.5756501006241</v>
+        <v>167.812999301915</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247343</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165111</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714816</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>182.034074286794</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>78.54216539558254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7.420262398531676</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,16 +23709,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>105.8758115500731</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>52.3998233988051</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>127.4694248935465</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.879261385015951</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>117.1119469436219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>78.76414027923921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.0576765518756</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12.90079450994153</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>181.4647862934925</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0213077854343</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799435</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>112.069578221072</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>851543.9516019091</v>
+        <v>851543.9516019092</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>805280.2942811222</v>
+        <v>805280.2942811223</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>805280.2942811223</v>
+        <v>805280.294281122</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="J2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="N2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.151770383</v>
+        <v>106137.1517703833</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252117</v>
+        <v>316711.9424252114</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113901</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313402</v>
+        <v>24677.24609313432</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817153</v>
+        <v>76496.15793817147</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484434</v>
+        <v>286886.6599484433</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="G4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316556</v>
@@ -26444,22 +26444,22 @@
         <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316548</v>
       </c>
       <c r="L4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
+        <v>43561.42148316545</v>
+      </c>
+      <c r="N4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="N4" t="n">
-        <v>43561.42148316555</v>
-      </c>
       <c r="O4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316548</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316546</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485709</v>
+        <v>58810.4220148571</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141905.6822443143</v>
+        <v>141905.6822443142</v>
       </c>
       <c r="C6" t="n">
-        <v>184473.1379111359</v>
+        <v>184473.1379111354</v>
       </c>
       <c r="D6" t="n">
-        <v>44529.7547637689</v>
+        <v>44529.75476376925</v>
       </c>
       <c r="E6" t="n">
-        <v>-54613.74131533015</v>
+        <v>-55588.33257505102</v>
       </c>
       <c r="F6" t="n">
-        <v>470546.2951615665</v>
+        <v>469571.7039018447</v>
       </c>
       <c r="G6" t="n">
-        <v>470546.295161566</v>
+        <v>469571.7039018447</v>
       </c>
       <c r="H6" t="n">
-        <v>470546.2951615665</v>
+        <v>469571.703901845</v>
       </c>
       <c r="I6" t="n">
-        <v>470546.2951615663</v>
+        <v>469571.7039018444</v>
       </c>
       <c r="J6" t="n">
-        <v>398291.600290427</v>
+        <v>397317.0090307053</v>
       </c>
       <c r="K6" t="n">
-        <v>445869.0490684323</v>
+        <v>444894.4578087105</v>
       </c>
       <c r="L6" t="n">
-        <v>394050.1372233946</v>
+        <v>393075.5459636731</v>
       </c>
       <c r="M6" t="n">
-        <v>335745.2799277289</v>
+        <v>334770.6886680076</v>
       </c>
       <c r="N6" t="n">
-        <v>470546.2951615663</v>
+        <v>469571.7039018446</v>
       </c>
       <c r="O6" t="n">
-        <v>470546.295161566</v>
+        <v>469571.7039018449</v>
       </c>
       <c r="P6" t="n">
-        <v>470546.2951615666</v>
+        <v>469571.7039018447</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593885</v>
+        <v>117.5602045593887</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464215</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026312</v>
+        <v>82.53894384026331</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576982</v>
+        <v>260.1834596576981</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406595</v>
+        <v>95.8831171440662</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081339</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406618</v>
+        <v>95.88311714406666</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406595</v>
+        <v>95.8831171440662</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081339</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>253.9535537991478</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
-        <v>368.6855105903226</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>69.43483284769</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>49.65966160901473</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>146.3479214995117</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
@@ -27593,7 +27593,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>329.2707277086669</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528998</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128891</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>53.81975275684181</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>96.47168056055614</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281884</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129685</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>111.2178080755154</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358481</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.4104523632267</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
@@ -27833,13 +27833,13 @@
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>256.0746102935075</v>
       </c>
       <c r="X7" t="n">
-        <v>89.90529402893742</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>348.6673132808189</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>118.3327786359297</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.284269082585382</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>31.00485570431127</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.216253151832116e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.609779555968089e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29994,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30042,10 +30042,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-5.456963432850208e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,13 +30510,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30750,10 +30750,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246768</v>
+        <v>0.4726038374246777</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025473</v>
+        <v>4.840054050025481</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231487</v>
+        <v>18.2200594423149</v>
       </c>
       <c r="J5" t="n">
-        <v>40.1116599466227</v>
+        <v>40.11165994662277</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480928</v>
+        <v>60.11698038480939</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439476</v>
+        <v>74.58043007439488</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819585</v>
+        <v>82.98509856819599</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127872</v>
+        <v>84.32788422127886</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288708</v>
+        <v>79.62842981288722</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646537</v>
+        <v>67.96102257646548</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.0358976486941</v>
+        <v>51.0358976486942</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262788</v>
+        <v>29.68720080262793</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531483</v>
+        <v>10.76945994531485</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326524</v>
+        <v>2.068823298326528</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397414</v>
+        <v>0.0378083069939742</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560431</v>
+        <v>0.2528653456560435</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941259</v>
+        <v>2.442146890941263</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596221</v>
+        <v>8.706109488596237</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182818</v>
+        <v>23.89022987182822</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078306</v>
+        <v>40.83220803078314</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483515</v>
+        <v>54.90394270483525</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486669</v>
+        <v>64.07031148486681</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827092</v>
+        <v>65.76606198270932</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106741</v>
+        <v>60.16309827106751</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496845</v>
+        <v>48.28619043496852</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128719</v>
+        <v>32.27803956128724</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134626</v>
+        <v>15.69983260134629</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707639</v>
+        <v>4.696862889707647</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359226</v>
+        <v>1.019224792359228</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368705</v>
+        <v>0.01663587800368708</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005365</v>
+        <v>0.2119938115005369</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588659</v>
+        <v>1.884817705886593</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761591</v>
+        <v>6.375232076761602</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308793</v>
+        <v>14.98796247308796</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342597</v>
+        <v>24.62982646342601</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072523</v>
+        <v>31.51769812072528</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094319</v>
+        <v>33.23099356094325</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898667</v>
+        <v>32.44083480898673</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736676</v>
+        <v>29.96436164736681</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275579</v>
+        <v>25.63968789275583</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846766</v>
+        <v>17.75159088846769</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651394</v>
+        <v>9.53201265165141</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513894</v>
+        <v>3.694473969513901</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477468</v>
+        <v>0.9057917400477483</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912019</v>
+        <v>0.01156329880912021</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34789,13 +34789,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67.64407789397694</v>
+        <v>151.2980666667449</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>79.71116244199196</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201018</v>
+        <v>28.16237059201026</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109935</v>
+        <v>164.1725419109936</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654858</v>
+        <v>256.4752296548581</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337556</v>
+        <v>302.1523988337557</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036672</v>
+        <v>292.2617450366721</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539457</v>
+        <v>230.3303996539458</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926785</v>
+        <v>158.5267349926786</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.0451984341493</v>
+        <v>41.04519843414939</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557032</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>167.4560060690027</v>
       </c>
       <c r="L6" t="n">
-        <v>263.9100656730258</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464215</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>102.237349201291</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033525</v>
+        <v>311.4291731033526</v>
       </c>
       <c r="P6" t="n">
         <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111148</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543115</v>
+        <v>2.360334637543154</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104137</v>
+        <v>59.10772338104142</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278378</v>
+        <v>72.81487052278383</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821526</v>
+        <v>76.57300718821531</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140643</v>
+        <v>54.54948956140648</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764928</v>
+        <v>22.91824715764932</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>546.4549645786756</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997186932</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747332</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
